--- a/微信信息导出表格.xlsx
+++ b/微信信息导出表格.xlsx
@@ -2,39 +2,375 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="25600" windowHeight="10480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="21">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,15 +378,305 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -403,7 +1029,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -413,13 +1038,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -514,16 +1139,6 @@
           <t>477</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>19830518979</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>钟鸿鑫</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,16 +1203,6 @@
           <t>800</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1017008092@qq.com</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>吴超宇</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,16 +1230,6 @@
           <t>515</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>15757613125</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>梁益名</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -662,16 +1257,6 @@
           <t>400</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>18522419821</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>王志宽</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -753,6 +1338,16 @@
           <t>800</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1017008092@qq.com</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>吴超宇</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -780,6 +1375,16 @@
           <t>515</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15757613125</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>梁益名</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -807,16 +1412,344 @@
           <t>400</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3859603670891167421</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Snoopy.(3.5求货 18点后第二天结</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2126344152787392391</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Snoopy.(3.5求货 18点后第二天结</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DO9828-500</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>15219894285</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>梁国杰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3859661917064201024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Snoopy.(3.5求货 18点后第二天结</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DJ6013-604</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1017008092@qq.com</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>吴超宇</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3859574259918599301</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Snoopy.(3.5求货 18点后第二天结</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CZ8455-100</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>15757613125</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>梁益名</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3867715443959260001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Spring🌳</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ABAT123-1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3859603670891167421</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Snoopy.(3.5求货 18点后第二天结</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>19830518979</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>钟鸿鑫</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2126344152787392391</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Snoopy.(3.5求货 18点后第二天结</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DO9828-500</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>15219894285</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>梁国杰</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3859661917064201024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Snoopy.(3.5求货 18点后第二天结</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DJ6013-604</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1017008092@qq.com</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>吴超宇</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3859574259918599301</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Snoopy.(3.5求货 18点后第二天结</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CZ8455-100</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>15757613125</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>梁益名</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3867715443959260001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Spring🌳</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ABAT123-1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>18522419821</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>王志宽</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
